--- a/JS-Frameworks-Self-Evaluation-Protocol_tpPetkov.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol_tpPetkov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrT\Desktop\Issue tracker project\Issue-Tracking-System-AngularJS-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
